--- a/UoF_TimeTableA21.xlsx
+++ b/UoF_TimeTableA21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0000000021/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0000000021/Developer/A21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C44FB6E-02EC-3042-9568-24C4FF93625A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01C6392-DF0E-BD49-990A-BB56B1C331A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A21" sheetId="1" r:id="rId1"/>
@@ -454,12 +454,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17993</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2875493</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>174626</xdr:rowOff>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1458382" cy="2444750"/>
+    <xdr:ext cx="2855382" cy="2508249"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="ZoneTexte 6">
@@ -473,8 +473,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9765243" y="1111251"/>
-          <a:ext cx="1458382" cy="2444750"/>
+          <a:off x="6844243" y="1111250"/>
+          <a:ext cx="2855382" cy="2508249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1408,12 +1408,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1488017</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2873375</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>192618</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1401233" cy="2461682"/>
+    <xdr:ext cx="2905125" cy="2461682"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="ZoneTexte 7">
@@ -1427,8 +1427,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11235267" y="1541993"/>
-          <a:ext cx="1401233" cy="2461682"/>
+          <a:off x="9731375" y="1541993"/>
+          <a:ext cx="2905125" cy="2461682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1928,9 +1928,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2562,12 +2560,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -2575,6 +2567,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
